--- a/natmiOut/OldD2/LR-pairs_lrc2p/Adam15-Itga5.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Adam15-Itga5.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>71.5940519578547</v>
+        <v>71.5940935</v>
       </c>
       <c r="H2">
-        <v>71.5940519578547</v>
+        <v>143.188187</v>
       </c>
       <c r="I2">
-        <v>0.3964419714929158</v>
+        <v>0.3871779756686048</v>
       </c>
       <c r="J2">
-        <v>0.3964419714929158</v>
+        <v>0.2984720157128297</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>46.9969734429779</v>
+        <v>47.464142</v>
       </c>
       <c r="N2">
-        <v>46.9969734429779</v>
+        <v>94.928284</v>
       </c>
       <c r="O2">
-        <v>0.230209636674283</v>
+        <v>0.2242480928640021</v>
       </c>
       <c r="P2">
-        <v>0.230209636674283</v>
+        <v>0.1646949584305048</v>
       </c>
       <c r="Q2">
-        <v>3364.703758538477</v>
+        <v>3398.152220245277</v>
       </c>
       <c r="R2">
-        <v>3364.703758538477</v>
+        <v>13592.60888098111</v>
       </c>
       <c r="S2">
-        <v>0.09126476221982059</v>
+        <v>0.08682392264262966</v>
       </c>
       <c r="T2">
-        <v>0.09126476221982059</v>
+        <v>0.04915683622049347</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>71.5940519578547</v>
+        <v>71.5940935</v>
       </c>
       <c r="H3">
-        <v>71.5940519578547</v>
+        <v>143.188187</v>
       </c>
       <c r="I3">
-        <v>0.3964419714929158</v>
+        <v>0.3871779756686048</v>
       </c>
       <c r="J3">
-        <v>0.3964419714929158</v>
+        <v>0.2984720157128297</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>65.28909399237919</v>
+        <v>69.97731266666666</v>
       </c>
       <c r="N3">
-        <v>65.28909399237919</v>
+        <v>209.931938</v>
       </c>
       <c r="O3">
-        <v>0.3198116284023067</v>
+        <v>0.3306133482671609</v>
       </c>
       <c r="P3">
-        <v>0.3198116284023067</v>
+        <v>0.3642194965005931</v>
       </c>
       <c r="Q3">
-        <v>4674.310787571655</v>
+        <v>5009.962265936068</v>
       </c>
       <c r="R3">
-        <v>4674.310787571655</v>
+        <v>30059.77359561641</v>
       </c>
       <c r="S3">
-        <v>0.1267867524701703</v>
+        <v>0.1280062069110988</v>
       </c>
       <c r="T3">
-        <v>0.1267867524701703</v>
+        <v>0.108709327282444</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>71.5940519578547</v>
+        <v>71.5940935</v>
       </c>
       <c r="H4">
-        <v>71.5940519578547</v>
+        <v>143.188187</v>
       </c>
       <c r="I4">
-        <v>0.3964419714929158</v>
+        <v>0.3871779756686048</v>
       </c>
       <c r="J4">
-        <v>0.3964419714929158</v>
+        <v>0.2984720157128297</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>31.768554655879</v>
+        <v>33.09063966666667</v>
       </c>
       <c r="N4">
-        <v>31.768554655879</v>
+        <v>99.271919</v>
       </c>
       <c r="O4">
-        <v>0.1556148596221944</v>
+        <v>0.1563393442759357</v>
       </c>
       <c r="P4">
-        <v>0.1556148596221944</v>
+        <v>0.172230908261456</v>
       </c>
       <c r="Q4">
-        <v>2274.439552658948</v>
+        <v>2369.094350270142</v>
       </c>
       <c r="R4">
-        <v>2274.439552658948</v>
+        <v>14214.56610162085</v>
       </c>
       <c r="S4">
-        <v>0.0616922617422161</v>
+        <v>0.06053115083411387</v>
       </c>
       <c r="T4">
-        <v>0.0616922617422161</v>
+        <v>0.05140610635684822</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>71.5940519578547</v>
+        <v>71.5940935</v>
       </c>
       <c r="H5">
-        <v>71.5940519578547</v>
+        <v>143.188187</v>
       </c>
       <c r="I5">
-        <v>0.3964419714929158</v>
+        <v>0.3871779756686048</v>
       </c>
       <c r="J5">
-        <v>0.3964419714929158</v>
+        <v>0.2984720157128297</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>24.3381357521672</v>
+        <v>24.35245633333333</v>
       </c>
       <c r="N5">
-        <v>24.3381357521672</v>
+        <v>73.05736899999999</v>
       </c>
       <c r="O5">
-        <v>0.1192177491096067</v>
+        <v>0.1150551060062118</v>
       </c>
       <c r="P5">
-        <v>0.1192177491096067</v>
+        <v>0.126750214409196</v>
       </c>
       <c r="Q5">
-        <v>1742.46575559798</v>
+        <v>1743.492035683334</v>
       </c>
       <c r="R5">
-        <v>1742.46575559798</v>
+        <v>10460.9522141</v>
       </c>
       <c r="S5">
-        <v>0.04726291949396029</v>
+        <v>0.04454680303382182</v>
       </c>
       <c r="T5">
-        <v>0.04726291949396029</v>
+        <v>0.03783139198674608</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>71.5940519578547</v>
+        <v>71.5940935</v>
       </c>
       <c r="H6">
-        <v>71.5940519578547</v>
+        <v>143.188187</v>
       </c>
       <c r="I6">
-        <v>0.3964419714929158</v>
+        <v>0.3871779756686048</v>
       </c>
       <c r="J6">
-        <v>0.3964419714929158</v>
+        <v>0.2984720157128297</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.6837117686637</v>
+        <v>25.64998233333334</v>
       </c>
       <c r="N6">
-        <v>24.6837117686637</v>
+        <v>76.94994700000001</v>
       </c>
       <c r="O6">
-        <v>0.1209105161831616</v>
+        <v>0.121185370215801</v>
       </c>
       <c r="P6">
-        <v>0.1209105161831616</v>
+        <v>0.1335036070218497</v>
       </c>
       <c r="Q6">
-        <v>1767.206942878418</v>
+        <v>1836.387233446015</v>
       </c>
       <c r="R6">
-        <v>1767.206942878418</v>
+        <v>11018.32340067609</v>
       </c>
       <c r="S6">
-        <v>0.04793400340987867</v>
+        <v>0.04692030632080426</v>
       </c>
       <c r="T6">
-        <v>0.04793400340987867</v>
+        <v>0.03984709069274498</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>71.5940519578547</v>
+        <v>71.5940935</v>
       </c>
       <c r="H7">
-        <v>71.5940519578547</v>
+        <v>143.188187</v>
       </c>
       <c r="I7">
-        <v>0.3964419714929158</v>
+        <v>0.3871779756686048</v>
       </c>
       <c r="J7">
-        <v>0.3964419714929158</v>
+        <v>0.2984720157128297</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.0721234786409</v>
+        <v>11.1245335</v>
       </c>
       <c r="N7">
-        <v>11.0721234786409</v>
+        <v>22.249067</v>
       </c>
       <c r="O7">
-        <v>0.05423561000844764</v>
+        <v>0.05255873837088854</v>
       </c>
       <c r="P7">
-        <v>0.05423561000844764</v>
+        <v>0.03860081537640053</v>
       </c>
       <c r="Q7">
-        <v>792.6981836135996</v>
+        <v>796.4508915428822</v>
       </c>
       <c r="R7">
-        <v>792.6981836135996</v>
+        <v>3185.803566171529</v>
       </c>
       <c r="S7">
-        <v>0.0215012721568699</v>
+        <v>0.02034958592613645</v>
       </c>
       <c r="T7">
-        <v>0.0215012721568699</v>
+        <v>0.01152126317355306</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.59075281456083</v>
+        <v>7.187397666666667</v>
       </c>
       <c r="H8">
-        <v>6.59075281456083</v>
+        <v>21.562193</v>
       </c>
       <c r="I8">
-        <v>0.03649536474014751</v>
+        <v>0.0388691572567401</v>
       </c>
       <c r="J8">
-        <v>0.03649536474014751</v>
+        <v>0.0449458250902993</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>46.9969734429779</v>
+        <v>47.464142</v>
       </c>
       <c r="N8">
-        <v>46.9969734429779</v>
+        <v>94.928284</v>
       </c>
       <c r="O8">
-        <v>0.230209636674283</v>
+        <v>0.2242480928640021</v>
       </c>
       <c r="P8">
-        <v>0.230209636674283</v>
+        <v>0.1646949584305048</v>
       </c>
       <c r="Q8">
-        <v>309.7454349951471</v>
+        <v>341.1436634611354</v>
       </c>
       <c r="R8">
-        <v>309.7454349951471</v>
+        <v>2046.861980766812</v>
       </c>
       <c r="S8">
-        <v>0.008401584657124796</v>
+        <v>0.008716334386054955</v>
       </c>
       <c r="T8">
-        <v>0.008401584657124796</v>
+        <v>0.007402350794871583</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.59075281456083</v>
+        <v>7.187397666666667</v>
       </c>
       <c r="H9">
-        <v>6.59075281456083</v>
+        <v>21.562193</v>
       </c>
       <c r="I9">
-        <v>0.03649536474014751</v>
+        <v>0.0388691572567401</v>
       </c>
       <c r="J9">
-        <v>0.03649536474014751</v>
+        <v>0.0449458250902993</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>65.28909399237919</v>
+        <v>69.97731266666666</v>
       </c>
       <c r="N9">
-        <v>65.28909399237919</v>
+        <v>209.931938</v>
       </c>
       <c r="O9">
-        <v>0.3198116284023067</v>
+        <v>0.3306133482671609</v>
       </c>
       <c r="P9">
-        <v>0.3198116284023067</v>
+        <v>0.3642194965005931</v>
       </c>
       <c r="Q9">
-        <v>430.3042799903997</v>
+        <v>502.9547737800037</v>
       </c>
       <c r="R9">
-        <v>430.3042799903997</v>
+        <v>4526.592964020034</v>
       </c>
       <c r="S9">
-        <v>0.0116716420266827</v>
+        <v>0.01285066222497366</v>
       </c>
       <c r="T9">
-        <v>0.0116716420266827</v>
+        <v>0.01637014578419253</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.59075281456083</v>
+        <v>7.187397666666667</v>
       </c>
       <c r="H10">
-        <v>6.59075281456083</v>
+        <v>21.562193</v>
       </c>
       <c r="I10">
-        <v>0.03649536474014751</v>
+        <v>0.0388691572567401</v>
       </c>
       <c r="J10">
-        <v>0.03649536474014751</v>
+        <v>0.0449458250902993</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.768554655879</v>
+        <v>33.09063966666667</v>
       </c>
       <c r="N10">
-        <v>31.768554655879</v>
+        <v>99.271919</v>
       </c>
       <c r="O10">
-        <v>0.1556148596221944</v>
+        <v>0.1563393442759357</v>
       </c>
       <c r="P10">
-        <v>0.1556148596221944</v>
+        <v>0.172230908261456</v>
       </c>
       <c r="Q10">
-        <v>209.3786910127641</v>
+        <v>237.8355863287074</v>
       </c>
       <c r="R10">
-        <v>209.3786910127641</v>
+        <v>2140.520276958367</v>
       </c>
       <c r="S10">
-        <v>0.005679221060898839</v>
+        <v>0.006076778558076975</v>
       </c>
       <c r="T10">
-        <v>0.005679221060898839</v>
+        <v>0.007741060277862783</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.59075281456083</v>
+        <v>7.187397666666667</v>
       </c>
       <c r="H11">
-        <v>6.59075281456083</v>
+        <v>21.562193</v>
       </c>
       <c r="I11">
-        <v>0.03649536474014751</v>
+        <v>0.0388691572567401</v>
       </c>
       <c r="J11">
-        <v>0.03649536474014751</v>
+        <v>0.0449458250902993</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>24.3381357521672</v>
+        <v>24.35245633333333</v>
       </c>
       <c r="N11">
-        <v>24.3381357521672</v>
+        <v>73.05736899999999</v>
       </c>
       <c r="O11">
-        <v>0.1192177491096067</v>
+        <v>0.1150551060062118</v>
       </c>
       <c r="P11">
-        <v>0.1192177491096067</v>
+        <v>0.126750214409196</v>
       </c>
       <c r="Q11">
-        <v>160.4066367097595</v>
+        <v>175.0307878278019</v>
       </c>
       <c r="R11">
-        <v>160.4066367097595</v>
+        <v>1575.277090450217</v>
       </c>
       <c r="S11">
-        <v>0.004350895237254493</v>
+        <v>0.004472095008546348</v>
       </c>
       <c r="T11">
-        <v>0.004350895237254493</v>
+        <v>0.005696892966993656</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.59075281456083</v>
+        <v>7.187397666666667</v>
       </c>
       <c r="H12">
-        <v>6.59075281456083</v>
+        <v>21.562193</v>
       </c>
       <c r="I12">
-        <v>0.03649536474014751</v>
+        <v>0.0388691572567401</v>
       </c>
       <c r="J12">
-        <v>0.03649536474014751</v>
+        <v>0.0449458250902993</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>24.6837117686637</v>
+        <v>25.64998233333334</v>
       </c>
       <c r="N12">
-        <v>24.6837117686637</v>
+        <v>76.94994700000001</v>
       </c>
       <c r="O12">
-        <v>0.1209105161831616</v>
+        <v>0.121185370215801</v>
       </c>
       <c r="P12">
-        <v>0.1209105161831616</v>
+        <v>0.1335036070218497</v>
       </c>
       <c r="Q12">
-        <v>162.6842428131285</v>
+        <v>184.3566231726412</v>
       </c>
       <c r="R12">
-        <v>162.6842428131285</v>
+        <v>1659.209608553771</v>
       </c>
       <c r="S12">
-        <v>0.004412673389023989</v>
+        <v>0.004710373212134236</v>
       </c>
       <c r="T12">
-        <v>0.004412673389023989</v>
+        <v>0.006000429770128111</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.59075281456083</v>
+        <v>7.187397666666667</v>
       </c>
       <c r="H13">
-        <v>6.59075281456083</v>
+        <v>21.562193</v>
       </c>
       <c r="I13">
-        <v>0.03649536474014751</v>
+        <v>0.0388691572567401</v>
       </c>
       <c r="J13">
-        <v>0.03649536474014751</v>
+        <v>0.0449458250902993</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.0721234786409</v>
+        <v>11.1245335</v>
       </c>
       <c r="N13">
-        <v>11.0721234786409</v>
+        <v>22.249067</v>
       </c>
       <c r="O13">
-        <v>0.05423561000844764</v>
+        <v>0.05255873837088854</v>
       </c>
       <c r="P13">
-        <v>0.05423561000844764</v>
+        <v>0.03860081537640053</v>
       </c>
       <c r="Q13">
-        <v>72.97362898001757</v>
+        <v>79.95644612065517</v>
       </c>
       <c r="R13">
-        <v>72.97362898001757</v>
+        <v>479.738676723931</v>
       </c>
       <c r="S13">
-        <v>0.001979348369162691</v>
+        <v>0.002042913866953927</v>
       </c>
       <c r="T13">
-        <v>0.001979348369162691</v>
+        <v>0.001734945496250634</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>28.8315753209319</v>
+        <v>31.60821133333333</v>
       </c>
       <c r="H14">
-        <v>28.8315753209319</v>
+        <v>94.824634</v>
       </c>
       <c r="I14">
-        <v>0.1596507845121725</v>
+        <v>0.1709359345201494</v>
       </c>
       <c r="J14">
-        <v>0.1596507845121725</v>
+        <v>0.1976594595000447</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>46.9969734429779</v>
+        <v>47.464142</v>
       </c>
       <c r="N14">
-        <v>46.9969734429779</v>
+        <v>94.928284</v>
       </c>
       <c r="O14">
-        <v>0.230209636674283</v>
+        <v>0.2242480928640021</v>
       </c>
       <c r="P14">
-        <v>0.230209636674283</v>
+        <v>0.1646949584305048</v>
       </c>
       <c r="Q14">
-        <v>1354.996779677053</v>
+        <v>1500.256631091343</v>
       </c>
       <c r="R14">
-        <v>1354.996779677053</v>
+        <v>9001.539786548057</v>
       </c>
       <c r="S14">
-        <v>0.03675314909731146</v>
+        <v>0.03833205731806945</v>
       </c>
       <c r="T14">
-        <v>0.03675314909731146</v>
+        <v>0.03255351646575591</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>28.8315753209319</v>
+        <v>31.60821133333333</v>
       </c>
       <c r="H15">
-        <v>28.8315753209319</v>
+        <v>94.824634</v>
       </c>
       <c r="I15">
-        <v>0.1596507845121725</v>
+        <v>0.1709359345201494</v>
       </c>
       <c r="J15">
-        <v>0.1596507845121725</v>
+        <v>0.1976594595000447</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>65.28909399237919</v>
+        <v>69.97731266666666</v>
       </c>
       <c r="N15">
-        <v>65.28909399237919</v>
+        <v>209.931938</v>
       </c>
       <c r="O15">
-        <v>0.3198116284023067</v>
+        <v>0.3306133482671609</v>
       </c>
       <c r="P15">
-        <v>0.3198116284023067</v>
+        <v>0.3642194965005931</v>
       </c>
       <c r="Q15">
-        <v>1882.387431076683</v>
+        <v>2211.857687306744</v>
       </c>
       <c r="R15">
-        <v>1882.387431076683</v>
+        <v>19906.71918576069</v>
       </c>
       <c r="S15">
-        <v>0.05105817737054364</v>
+        <v>0.05651370165088276</v>
       </c>
       <c r="T15">
-        <v>0.05105817737054364</v>
+        <v>0.07199142881768565</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>28.8315753209319</v>
+        <v>31.60821133333333</v>
       </c>
       <c r="H16">
-        <v>28.8315753209319</v>
+        <v>94.824634</v>
       </c>
       <c r="I16">
-        <v>0.1596507845121725</v>
+        <v>0.1709359345201494</v>
       </c>
       <c r="J16">
-        <v>0.1596507845121725</v>
+        <v>0.1976594595000447</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>31.768554655879</v>
+        <v>33.09063966666667</v>
       </c>
       <c r="N16">
-        <v>31.768554655879</v>
+        <v>99.271919</v>
       </c>
       <c r="O16">
-        <v>0.1556148596221944</v>
+        <v>0.1563393442759357</v>
       </c>
       <c r="P16">
-        <v>0.1556148596221944</v>
+        <v>0.172230908261456</v>
       </c>
       <c r="Q16">
-        <v>915.9374763981173</v>
+        <v>1045.935931739183</v>
       </c>
       <c r="R16">
-        <v>915.9374763981173</v>
+        <v>9413.423385652646</v>
       </c>
       <c r="S16">
-        <v>0.02484403442043493</v>
+        <v>0.02672401191607444</v>
       </c>
       <c r="T16">
-        <v>0.02484403442043493</v>
+        <v>0.03404306823616117</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>28.8315753209319</v>
+        <v>31.60821133333333</v>
       </c>
       <c r="H17">
-        <v>28.8315753209319</v>
+        <v>94.824634</v>
       </c>
       <c r="I17">
-        <v>0.1596507845121725</v>
+        <v>0.1709359345201494</v>
       </c>
       <c r="J17">
-        <v>0.1596507845121725</v>
+        <v>0.1976594595000447</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>24.3381357521672</v>
+        <v>24.35245633333333</v>
       </c>
       <c r="N17">
-        <v>24.3381357521672</v>
+        <v>73.05736899999999</v>
       </c>
       <c r="O17">
-        <v>0.1192177491096067</v>
+        <v>0.1150551060062118</v>
       </c>
       <c r="P17">
-        <v>0.1192177491096067</v>
+        <v>0.126750214409196</v>
       </c>
       <c r="Q17">
-        <v>701.7067941096742</v>
+        <v>769.7375862697718</v>
       </c>
       <c r="R17">
-        <v>701.7067941096742</v>
+        <v>6927.638276427946</v>
       </c>
       <c r="S17">
-        <v>0.01903320717312406</v>
+        <v>0.01966705206648666</v>
       </c>
       <c r="T17">
-        <v>0.01903320717312406</v>
+        <v>0.02505337887163646</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>28.8315753209319</v>
+        <v>31.60821133333333</v>
       </c>
       <c r="H18">
-        <v>28.8315753209319</v>
+        <v>94.824634</v>
       </c>
       <c r="I18">
-        <v>0.1596507845121725</v>
+        <v>0.1709359345201494</v>
       </c>
       <c r="J18">
-        <v>0.1596507845121725</v>
+        <v>0.1976594595000447</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>24.6837117686637</v>
+        <v>25.64998233333334</v>
       </c>
       <c r="N18">
-        <v>24.6837117686637</v>
+        <v>76.94994700000001</v>
       </c>
       <c r="O18">
-        <v>0.1209105161831616</v>
+        <v>0.121185370215801</v>
       </c>
       <c r="P18">
-        <v>0.1209105161831616</v>
+        <v>0.1335036070218497</v>
       </c>
       <c r="Q18">
-        <v>711.6702950584006</v>
+        <v>810.7500622882666</v>
       </c>
       <c r="R18">
-        <v>711.6702950584006</v>
+        <v>7296.750560594399</v>
       </c>
       <c r="S18">
-        <v>0.01930345876441347</v>
+        <v>0.02071493450800822</v>
       </c>
       <c r="T18">
-        <v>0.01930345876441347</v>
+        <v>0.02638825080524519</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>28.8315753209319</v>
+        <v>31.60821133333333</v>
       </c>
       <c r="H19">
-        <v>28.8315753209319</v>
+        <v>94.824634</v>
       </c>
       <c r="I19">
-        <v>0.1596507845121725</v>
+        <v>0.1709359345201494</v>
       </c>
       <c r="J19">
-        <v>0.1596507845121725</v>
+        <v>0.1976594595000447</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>11.0721234786409</v>
+        <v>11.1245335</v>
       </c>
       <c r="N19">
-        <v>11.0721234786409</v>
+        <v>22.249067</v>
       </c>
       <c r="O19">
-        <v>0.05423561000844764</v>
+        <v>0.05255873837088854</v>
       </c>
       <c r="P19">
-        <v>0.05423561000844764</v>
+        <v>0.03860081537640053</v>
       </c>
       <c r="Q19">
-        <v>319.2267620370936</v>
+        <v>351.6266058527463</v>
       </c>
       <c r="R19">
-        <v>319.2267620370936</v>
+        <v>2109.759635116478</v>
       </c>
       <c r="S19">
-        <v>0.008658757686344897</v>
+        <v>0.008984177060627867</v>
       </c>
       <c r="T19">
-        <v>0.008658757686344897</v>
+        <v>0.007629816303560343</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>24.8350712483255</v>
+        <v>25.18468366666667</v>
       </c>
       <c r="H20">
-        <v>24.8350712483255</v>
+        <v>75.554051</v>
       </c>
       <c r="I20">
-        <v>0.1375207065197126</v>
+        <v>0.1361977554742582</v>
       </c>
       <c r="J20">
-        <v>0.1375207065197126</v>
+        <v>0.1574904352775969</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>46.9969734429779</v>
+        <v>47.464142</v>
       </c>
       <c r="N20">
-        <v>46.9969734429779</v>
+        <v>94.928284</v>
       </c>
       <c r="O20">
-        <v>0.230209636674283</v>
+        <v>0.2242480928640021</v>
       </c>
       <c r="P20">
-        <v>0.230209636674283</v>
+        <v>0.1646949584305048</v>
       </c>
       <c r="Q20">
-        <v>1167.173183912018</v>
+        <v>1195.369401779747</v>
       </c>
       <c r="R20">
-        <v>1167.173183912018</v>
+        <v>7172.216410678485</v>
       </c>
       <c r="S20">
-        <v>0.03165859188309373</v>
+        <v>0.0305420869174601</v>
       </c>
       <c r="T20">
-        <v>0.03165859188309373</v>
+        <v>0.02593788069124593</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>24.8350712483255</v>
+        <v>25.18468366666667</v>
       </c>
       <c r="H21">
-        <v>24.8350712483255</v>
+        <v>75.554051</v>
       </c>
       <c r="I21">
-        <v>0.1375207065197126</v>
+        <v>0.1361977554742582</v>
       </c>
       <c r="J21">
-        <v>0.1375207065197126</v>
+        <v>0.1574904352775969</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>65.28909399237919</v>
+        <v>69.97731266666666</v>
       </c>
       <c r="N21">
-        <v>65.28909399237919</v>
+        <v>209.931938</v>
       </c>
       <c r="O21">
-        <v>0.3198116284023067</v>
+        <v>0.3306133482671609</v>
       </c>
       <c r="P21">
-        <v>0.3198116284023067</v>
+        <v>0.3642194965005931</v>
       </c>
       <c r="Q21">
-        <v>1621.459301039358</v>
+        <v>1762.356483353426</v>
       </c>
       <c r="R21">
-        <v>1621.459301039358</v>
+        <v>15861.20835018084</v>
       </c>
       <c r="S21">
-        <v>0.043980721091105</v>
+        <v>0.04502879596381654</v>
       </c>
       <c r="T21">
-        <v>0.043980721091105</v>
+        <v>0.05736108704046558</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>24.8350712483255</v>
+        <v>25.18468366666667</v>
       </c>
       <c r="H22">
-        <v>24.8350712483255</v>
+        <v>75.554051</v>
       </c>
       <c r="I22">
-        <v>0.1375207065197126</v>
+        <v>0.1361977554742582</v>
       </c>
       <c r="J22">
-        <v>0.1375207065197126</v>
+        <v>0.1574904352775969</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>31.768554655879</v>
+        <v>33.09063966666667</v>
       </c>
       <c r="N22">
-        <v>31.768554655879</v>
+        <v>99.271919</v>
       </c>
       <c r="O22">
-        <v>0.1556148596221944</v>
+        <v>0.1563393442759357</v>
       </c>
       <c r="P22">
-        <v>0.1556148596221944</v>
+        <v>0.172230908261456</v>
       </c>
       <c r="Q22">
-        <v>788.9743183350778</v>
+        <v>833.3772923326522</v>
       </c>
       <c r="R22">
-        <v>788.9743183350778</v>
+        <v>7500.395630993869</v>
       </c>
       <c r="S22">
-        <v>0.02140026544021007</v>
+        <v>0.02129306778269976</v>
       </c>
       <c r="T22">
-        <v>0.02140026544021007</v>
+        <v>0.02712472071035255</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>24.8350712483255</v>
+        <v>25.18468366666667</v>
       </c>
       <c r="H23">
-        <v>24.8350712483255</v>
+        <v>75.554051</v>
       </c>
       <c r="I23">
-        <v>0.1375207065197126</v>
+        <v>0.1361977554742582</v>
       </c>
       <c r="J23">
-        <v>0.1375207065197126</v>
+        <v>0.1574904352775969</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>24.3381357521672</v>
+        <v>24.35245633333333</v>
       </c>
       <c r="N23">
-        <v>24.3381357521672</v>
+        <v>73.05736899999999</v>
       </c>
       <c r="O23">
-        <v>0.1192177491096067</v>
+        <v>0.1150551060062118</v>
       </c>
       <c r="P23">
-        <v>0.1192177491096067</v>
+        <v>0.126750214409196</v>
       </c>
       <c r="Q23">
-        <v>604.4393354564907</v>
+        <v>613.3089092613133</v>
       </c>
       <c r="R23">
-        <v>604.4393354564907</v>
+        <v>5519.780183351819</v>
       </c>
       <c r="S23">
-        <v>0.01639490908724295</v>
+        <v>0.01567024719389889</v>
       </c>
       <c r="T23">
-        <v>0.01639490908724295</v>
+        <v>0.01996194643883301</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>24.8350712483255</v>
+        <v>25.18468366666667</v>
       </c>
       <c r="H24">
-        <v>24.8350712483255</v>
+        <v>75.554051</v>
       </c>
       <c r="I24">
-        <v>0.1375207065197126</v>
+        <v>0.1361977554742582</v>
       </c>
       <c r="J24">
-        <v>0.1375207065197126</v>
+        <v>0.1574904352775969</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>24.6837117686637</v>
+        <v>25.64998233333334</v>
       </c>
       <c r="N24">
-        <v>24.6837117686637</v>
+        <v>76.94994700000001</v>
       </c>
       <c r="O24">
-        <v>0.1209105161831616</v>
+        <v>0.121185370215801</v>
       </c>
       <c r="P24">
-        <v>0.1209105161831616</v>
+        <v>0.1335036070218497</v>
       </c>
       <c r="Q24">
-        <v>613.0217404478936</v>
+        <v>645.9866911205887</v>
       </c>
       <c r="R24">
-        <v>613.0217404478936</v>
+        <v>5813.880220085298</v>
       </c>
       <c r="S24">
-        <v>0.01662769961117152</v>
+        <v>0.01650517541970911</v>
       </c>
       <c r="T24">
-        <v>0.01662769961117152</v>
+        <v>0.02102554118100036</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>24.8350712483255</v>
+        <v>25.18468366666667</v>
       </c>
       <c r="H25">
-        <v>24.8350712483255</v>
+        <v>75.554051</v>
       </c>
       <c r="I25">
-        <v>0.1375207065197126</v>
+        <v>0.1361977554742582</v>
       </c>
       <c r="J25">
-        <v>0.1375207065197126</v>
+        <v>0.1574904352775969</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>11.0721234786409</v>
+        <v>11.1245335</v>
       </c>
       <c r="N25">
-        <v>11.0721234786409</v>
+        <v>22.249067</v>
       </c>
       <c r="O25">
-        <v>0.05423561000844764</v>
+        <v>0.05255873837088854</v>
       </c>
       <c r="P25">
-        <v>0.05423561000844764</v>
+        <v>0.03860081537640053</v>
       </c>
       <c r="Q25">
-        <v>274.9769754623044</v>
+        <v>280.1678571367362</v>
       </c>
       <c r="R25">
-        <v>274.9769754623044</v>
+        <v>1681.007142820417</v>
       </c>
       <c r="S25">
-        <v>0.007458519406889314</v>
+        <v>0.007158382196673789</v>
       </c>
       <c r="T25">
-        <v>0.007458519406889314</v>
+        <v>0.006079259215699473</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>45.3336886823533</v>
+        <v>45.93186333333333</v>
       </c>
       <c r="H26">
-        <v>45.3336886823533</v>
+        <v>137.79559</v>
       </c>
       <c r="I26">
-        <v>0.2510289112684657</v>
+        <v>0.2483976679457086</v>
       </c>
       <c r="J26">
-        <v>0.2510289112684657</v>
+        <v>0.2872312888746796</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>46.9969734429779</v>
+        <v>47.464142</v>
       </c>
       <c r="N26">
-        <v>46.9969734429779</v>
+        <v>94.928284</v>
       </c>
       <c r="O26">
-        <v>0.230209636674283</v>
+        <v>0.2242480928640021</v>
       </c>
       <c r="P26">
-        <v>0.230209636674283</v>
+        <v>0.1646949584305048</v>
       </c>
       <c r="Q26">
-        <v>2130.546163076785</v>
+        <v>2180.116483577927</v>
       </c>
       <c r="R26">
-        <v>2130.546163076785</v>
+        <v>13080.69890146756</v>
       </c>
       <c r="S26">
-        <v>0.0577892744578543</v>
+        <v>0.05570270330869083</v>
       </c>
       <c r="T26">
-        <v>0.0577892744578543</v>
+        <v>0.04730554518115568</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>45.3336886823533</v>
+        <v>45.93186333333333</v>
       </c>
       <c r="H27">
-        <v>45.3336886823533</v>
+        <v>137.79559</v>
       </c>
       <c r="I27">
-        <v>0.2510289112684657</v>
+        <v>0.2483976679457086</v>
       </c>
       <c r="J27">
-        <v>0.2510289112684657</v>
+        <v>0.2872312888746796</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>65.28909399237919</v>
+        <v>69.97731266666666</v>
       </c>
       <c r="N27">
-        <v>65.28909399237919</v>
+        <v>209.931938</v>
       </c>
       <c r="O27">
-        <v>0.3198116284023067</v>
+        <v>0.3306133482671609</v>
       </c>
       <c r="P27">
-        <v>0.3198116284023067</v>
+        <v>0.3642194965005931</v>
       </c>
       <c r="Q27">
-        <v>2959.795461403422</v>
+        <v>3214.188361839269</v>
       </c>
       <c r="R27">
-        <v>2959.795461403422</v>
+        <v>28927.69525655342</v>
       </c>
       <c r="S27">
-        <v>0.08028196488882616</v>
+        <v>0.08212358470128514</v>
       </c>
       <c r="T27">
-        <v>0.08028196488882616</v>
+        <v>0.1046152354131522</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>45.3336886823533</v>
+        <v>45.93186333333333</v>
       </c>
       <c r="H28">
-        <v>45.3336886823533</v>
+        <v>137.79559</v>
       </c>
       <c r="I28">
-        <v>0.2510289112684657</v>
+        <v>0.2483976679457086</v>
       </c>
       <c r="J28">
-        <v>0.2510289112684657</v>
+        <v>0.2872312888746796</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>31.768554655879</v>
+        <v>33.09063966666667</v>
       </c>
       <c r="N28">
-        <v>31.768554655879</v>
+        <v>99.271919</v>
       </c>
       <c r="O28">
-        <v>0.1556148596221944</v>
+        <v>0.1563393442759357</v>
       </c>
       <c r="P28">
-        <v>0.1556148596221944</v>
+        <v>0.172230908261456</v>
       </c>
       <c r="Q28">
-        <v>1440.185766657944</v>
+        <v>1519.914738781912</v>
       </c>
       <c r="R28">
-        <v>1440.185766657944</v>
+        <v>13679.23264903721</v>
       </c>
       <c r="S28">
-        <v>0.03906382878815459</v>
+        <v>0.0388343285263037</v>
       </c>
       <c r="T28">
-        <v>0.03906382878815459</v>
+        <v>0.0494701057639947</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>45.3336886823533</v>
+        <v>45.93186333333333</v>
       </c>
       <c r="H29">
-        <v>45.3336886823533</v>
+        <v>137.79559</v>
       </c>
       <c r="I29">
-        <v>0.2510289112684657</v>
+        <v>0.2483976679457086</v>
       </c>
       <c r="J29">
-        <v>0.2510289112684657</v>
+        <v>0.2872312888746796</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>24.3381357521672</v>
+        <v>24.35245633333333</v>
       </c>
       <c r="N29">
-        <v>24.3381357521672</v>
+        <v>73.05736899999999</v>
       </c>
       <c r="O29">
-        <v>0.1192177491096067</v>
+        <v>0.1150551060062118</v>
       </c>
       <c r="P29">
-        <v>0.1192177491096067</v>
+        <v>0.126750214409196</v>
       </c>
       <c r="Q29">
-        <v>1103.3374692976</v>
+        <v>1118.553696133634</v>
       </c>
       <c r="R29">
-        <v>1103.3374692976</v>
+        <v>10066.98326520271</v>
       </c>
       <c r="S29">
-        <v>0.02992710176286166</v>
+        <v>0.0285794200171893</v>
       </c>
       <c r="T29">
-        <v>0.02992710176286166</v>
+        <v>0.03640662744989535</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>45.3336886823533</v>
+        <v>45.93186333333333</v>
       </c>
       <c r="H30">
-        <v>45.3336886823533</v>
+        <v>137.79559</v>
       </c>
       <c r="I30">
-        <v>0.2510289112684657</v>
+        <v>0.2483976679457086</v>
       </c>
       <c r="J30">
-        <v>0.2510289112684657</v>
+        <v>0.2872312888746796</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>24.6837117686637</v>
+        <v>25.64998233333334</v>
       </c>
       <c r="N30">
-        <v>24.6837117686637</v>
+        <v>76.94994700000001</v>
       </c>
       <c r="O30">
-        <v>0.1209105161831616</v>
+        <v>0.121185370215801</v>
       </c>
       <c r="P30">
-        <v>0.1209105161831616</v>
+        <v>0.1335036070218497</v>
       </c>
       <c r="Q30">
-        <v>1119.00370484554</v>
+        <v>1178.151483037081</v>
       </c>
       <c r="R30">
-        <v>1119.00370484554</v>
+        <v>10603.36334733373</v>
       </c>
       <c r="S30">
-        <v>0.03035203523836724</v>
+        <v>0.0301021633507423</v>
       </c>
       <c r="T30">
-        <v>0.03035203523836724</v>
+        <v>0.03834641311430463</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>45.3336886823533</v>
+        <v>45.93186333333333</v>
       </c>
       <c r="H31">
-        <v>45.3336886823533</v>
+        <v>137.79559</v>
       </c>
       <c r="I31">
-        <v>0.2510289112684657</v>
+        <v>0.2483976679457086</v>
       </c>
       <c r="J31">
-        <v>0.2510289112684657</v>
+        <v>0.2872312888746796</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>11.0721234786409</v>
+        <v>11.1245335</v>
       </c>
       <c r="N31">
-        <v>11.0721234786409</v>
+        <v>22.249067</v>
       </c>
       <c r="O31">
-        <v>0.05423561000844764</v>
+        <v>0.05255873837088854</v>
       </c>
       <c r="P31">
-        <v>0.05423561000844764</v>
+        <v>0.03860081537640053</v>
       </c>
       <c r="Q31">
-        <v>501.9401988332812</v>
+        <v>510.9705523690884</v>
       </c>
       <c r="R31">
-        <v>501.9401988332812</v>
+        <v>3065.82331421453</v>
       </c>
       <c r="S31">
-        <v>0.01361470613240171</v>
+        <v>0.01305546804149735</v>
       </c>
       <c r="T31">
-        <v>0.01361470613240171</v>
+        <v>0.01108736195217708</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>3.40636417076624</v>
+        <v>3.4063695</v>
       </c>
       <c r="H32">
-        <v>3.40636417076624</v>
+        <v>6.812739000000001</v>
       </c>
       <c r="I32">
-        <v>0.01886226146658601</v>
+        <v>0.01842150913453884</v>
       </c>
       <c r="J32">
-        <v>0.01886226146658601</v>
+        <v>0.01420097554454969</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>46.9969734429779</v>
+        <v>47.464142</v>
       </c>
       <c r="N32">
-        <v>46.9969734429779</v>
+        <v>94.928284</v>
       </c>
       <c r="O32">
-        <v>0.230209636674283</v>
+        <v>0.2242480928640021</v>
       </c>
       <c r="P32">
-        <v>0.230209636674283</v>
+        <v>0.1646949584305048</v>
       </c>
       <c r="Q32">
-        <v>160.0888064706124</v>
+        <v>161.680405652469</v>
       </c>
       <c r="R32">
-        <v>160.0888064706124</v>
+        <v>646.7216226098761</v>
       </c>
       <c r="S32">
-        <v>0.004342274359078094</v>
+        <v>0.004130988291097129</v>
       </c>
       <c r="T32">
-        <v>0.004342274359078094</v>
+        <v>0.002338829076982227</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>3.40636417076624</v>
+        <v>3.4063695</v>
       </c>
       <c r="H33">
-        <v>3.40636417076624</v>
+        <v>6.812739000000001</v>
       </c>
       <c r="I33">
-        <v>0.01886226146658601</v>
+        <v>0.01842150913453884</v>
       </c>
       <c r="J33">
-        <v>0.01886226146658601</v>
+        <v>0.01420097554454969</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>65.28909399237919</v>
+        <v>69.97731266666666</v>
       </c>
       <c r="N33">
-        <v>65.28909399237919</v>
+        <v>209.931938</v>
       </c>
       <c r="O33">
-        <v>0.3198116284023067</v>
+        <v>0.3306133482671609</v>
       </c>
       <c r="P33">
-        <v>0.3198116284023067</v>
+        <v>0.3642194965005931</v>
       </c>
       <c r="Q33">
-        <v>222.3984305174299</v>
+        <v>238.368583559697</v>
       </c>
       <c r="R33">
-        <v>222.3984305174299</v>
+        <v>1430.211501358182</v>
       </c>
       <c r="S33">
-        <v>0.006032370554978955</v>
+        <v>0.006090396815103975</v>
       </c>
       <c r="T33">
-        <v>0.006032370554978955</v>
+        <v>0.005172272162653125</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>3.40636417076624</v>
+        <v>3.4063695</v>
       </c>
       <c r="H34">
-        <v>3.40636417076624</v>
+        <v>6.812739000000001</v>
       </c>
       <c r="I34">
-        <v>0.01886226146658601</v>
+        <v>0.01842150913453884</v>
       </c>
       <c r="J34">
-        <v>0.01886226146658601</v>
+        <v>0.01420097554454969</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>31.768554655879</v>
+        <v>33.09063966666667</v>
       </c>
       <c r="N34">
-        <v>31.768554655879</v>
+        <v>99.271919</v>
       </c>
       <c r="O34">
-        <v>0.1556148596221944</v>
+        <v>0.1563393442759357</v>
       </c>
       <c r="P34">
-        <v>0.1556148596221944</v>
+        <v>0.172230908261456</v>
       </c>
       <c r="Q34">
-        <v>108.2152663368152</v>
+        <v>112.7189456960235</v>
       </c>
       <c r="R34">
-        <v>108.2152663368152</v>
+        <v>676.313674176141</v>
       </c>
       <c r="S34">
-        <v>0.00293524817027991</v>
+        <v>0.002880006658666962</v>
       </c>
       <c r="T34">
-        <v>0.00293524817027991</v>
+        <v>0.002445846916236517</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>3.40636417076624</v>
+        <v>3.4063695</v>
       </c>
       <c r="H35">
-        <v>3.40636417076624</v>
+        <v>6.812739000000001</v>
       </c>
       <c r="I35">
-        <v>0.01886226146658601</v>
+        <v>0.01842150913453884</v>
       </c>
       <c r="J35">
-        <v>0.01886226146658601</v>
+        <v>0.01420097554454969</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>24.3381357521672</v>
+        <v>24.35245633333333</v>
       </c>
       <c r="N35">
-        <v>24.3381357521672</v>
+        <v>73.05736899999999</v>
       </c>
       <c r="O35">
-        <v>0.1192177491096067</v>
+        <v>0.1150551060062118</v>
       </c>
       <c r="P35">
-        <v>0.1192177491096067</v>
+        <v>0.126750214409196</v>
       </c>
       <c r="Q35">
-        <v>82.90455360942721</v>
+        <v>82.95346450394851</v>
       </c>
       <c r="R35">
-        <v>82.90455360942721</v>
+        <v>497.720787023691</v>
       </c>
       <c r="S35">
-        <v>0.002248716355163253</v>
+        <v>0.002119488686268765</v>
       </c>
       <c r="T35">
-        <v>0.002248716355163253</v>
+        <v>0.001799976695091422</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>3.40636417076624</v>
+        <v>3.4063695</v>
       </c>
       <c r="H36">
-        <v>3.40636417076624</v>
+        <v>6.812739000000001</v>
       </c>
       <c r="I36">
-        <v>0.01886226146658601</v>
+        <v>0.01842150913453884</v>
       </c>
       <c r="J36">
-        <v>0.01886226146658601</v>
+        <v>0.01420097554454969</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>24.6837117686637</v>
+        <v>25.64998233333334</v>
       </c>
       <c r="N36">
-        <v>24.6837117686637</v>
+        <v>76.94994700000001</v>
       </c>
       <c r="O36">
-        <v>0.1209105161831616</v>
+        <v>0.121185370215801</v>
       </c>
       <c r="P36">
-        <v>0.1209105161831616</v>
+        <v>0.1335036070218497</v>
       </c>
       <c r="Q36">
-        <v>84.081711370297</v>
+        <v>87.37331749580552</v>
       </c>
       <c r="R36">
-        <v>84.081711370297</v>
+        <v>524.2399049748331</v>
       </c>
       <c r="S36">
-        <v>0.002280645770306673</v>
+        <v>0.002232417404402849</v>
       </c>
       <c r="T36">
-        <v>0.002280645770306673</v>
+        <v>0.001895881458426461</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>3.40636417076624</v>
+        <v>3.4063695</v>
       </c>
       <c r="H37">
-        <v>3.40636417076624</v>
+        <v>6.812739000000001</v>
       </c>
       <c r="I37">
-        <v>0.01886226146658601</v>
+        <v>0.01842150913453884</v>
       </c>
       <c r="J37">
-        <v>0.01886226146658601</v>
+        <v>0.01420097554454969</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>11.0721234786409</v>
+        <v>11.1245335</v>
       </c>
       <c r="N37">
-        <v>11.0721234786409</v>
+        <v>22.249067</v>
       </c>
       <c r="O37">
-        <v>0.05423561000844764</v>
+        <v>0.05255873837088854</v>
       </c>
       <c r="P37">
-        <v>0.05423561000844764</v>
+        <v>0.03860081537640053</v>
       </c>
       <c r="Q37">
-        <v>37.71568471194203</v>
+        <v>37.89427161612825</v>
       </c>
       <c r="R37">
-        <v>37.71568471194203</v>
+        <v>151.577086464513</v>
       </c>
       <c r="S37">
-        <v>0.001023006256779129</v>
+        <v>0.0009682112789991603</v>
       </c>
       <c r="T37">
-        <v>0.001023006256779129</v>
+        <v>0.0005481692351599416</v>
       </c>
     </row>
   </sheetData>
